--- a/data/trans_dic/P34_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,59%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,87; 31,41</t>
+          <t>8,57; 37,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,11; 40,29</t>
+          <t>6,68; 35,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,71; 40,37</t>
+          <t>5,41; 32,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 19,78</t>
+          <t>3,93; 29,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 23,26</t>
+          <t>8,75; 29,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 19,43</t>
+          <t>14,15; 37,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 23,18</t>
+          <t>12,71; 35,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,58; 28,35</t>
+          <t>9,15; 32,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,67; 26,47</t>
+          <t>11,26; 27,31</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13,72; 30,96</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,26; 29,75</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 27,22</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,23%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>18,74%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22,99%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>21,57%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>22,69%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>24,97%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>24,58%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>25,05%</t>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22,2%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21,7%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 35,76</t>
+          <t>20,86; 35,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,95; 34,48</t>
+          <t>18,73; 33,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,61; 34,57</t>
+          <t>19,18; 36,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,56; 26,66</t>
+          <t>20,0; 41,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 27,29</t>
+          <t>13,82; 24,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 29,7</t>
+          <t>12,69; 22,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,69; 29,14</t>
+          <t>12,78; 23,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,66; 28,8</t>
+          <t>10,34; 20,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,01; 29,87</t>
+          <t>18,03; 27,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17,19; 26,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17,47; 27,3</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,31; 28,43</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 15,98</t>
+          <t>6,42; 18,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 17,05</t>
+          <t>6,89; 18,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 18,33</t>
+          <t>7,06; 20,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,59; 23,11</t>
+          <t>4,54; 16,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 23,85</t>
+          <t>13,19; 25,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,41; 24,94</t>
+          <t>13,07; 25,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 18,7</t>
+          <t>14,3; 26,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,14; 19,29</t>
+          <t>12,18; 24,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,75; 20,06</t>
+          <t>11,74; 20,35</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11,6; 19,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,09; 20,58</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 18,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 25,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,09; 27,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,74; 27,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 22,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,52; 22,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,76; 23,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,68; 22,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,83; 23,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 24,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,52%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18,64%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16,22; 25,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 24,98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15,12; 25,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14,62; 27,39</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 22,77</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 23,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,59; 23,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,99; 21,07</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 22,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16,05; 22,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 22,97</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>14,98; 22,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>25909</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20320</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20045</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>27640</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25665</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27335</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27248</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39556</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>51574</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>47655</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47293</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>67195</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11041; 47840</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7045; 37089</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6171; 37323</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6972; 53185</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12463; 42312</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16344; 42890</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15556; 43850</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19577; 69944</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30554; 74108</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30322; 68404</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28996; 70368</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38448; 106576</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>118512</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>96206</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>105317</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>147450</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>87038</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67100</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65525</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>72027</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>205550</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>163306</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>170841</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>219477</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>89569; 152508</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>70464; 126574</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>75996; 142874</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>103354; 216028</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>64192; 112968</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>48343; 87342</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>47705; 87980</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>51172; 101051</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>161170; 248103</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>130143; 199304</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>134433; 210076</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>164934; 287548</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37531</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32589</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>33024</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>32665</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>80325</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>63996</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64447</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>70545</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>117856</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96585</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97472</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>103210</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21366; 60121</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19446; 51871</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19448; 55572</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16036; 58032</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>56512; 110970</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45039; 89057</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46809; 87627</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>47993; 96510</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>89373; 154936</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>72704; 123939</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>72894; 124084</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>74901; 141758</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>181952</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>149116</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>158386</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>207755</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>193028</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>158431</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>157220</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>182128</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>374980</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>307547</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>315606</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>389883</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>144571; 228493</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>121161; 190873</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>118820; 202322</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>153144; 286998</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>154452; 235737</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>128591; 195381</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>128350; 192147</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>143199; 232386</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>321729; 441421</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>257645; 353730</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>265997; 369497</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>322144; 487027</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
